--- a/fantasygp.xlsx
+++ b/fantasygp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/github.com/squirke1/fantasygp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{701E1E77-FC1A-DD4A-87D5-0F0181F2535E}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670E2396-A735-4941-B762-4AD76F00E176}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring" sheetId="5" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4FC977-EE0F-F648-BFCF-D8797BF030EA}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2203,7 +2203,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="E2">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="E3">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>13</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
       </c>
       <c r="E4">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2301,7 +2301,7 @@
       </c>
       <c r="E5">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="E6">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="E7">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>21</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="E8">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="E9">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2391,7 +2391,7 @@
       </c>
       <c r="E10">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="E11">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2427,7 +2427,7 @@
       </c>
       <c r="E12">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>19</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="E13">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -2463,7 +2463,7 @@
       </c>
       <c r="E14">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="E15">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -2499,7 +2499,7 @@
       </c>
       <c r="E16">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="E17">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2535,7 +2535,7 @@
       </c>
       <c r="E18">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>19.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="E19">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="E20">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>28</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -2589,7 +2589,7 @@
       </c>
       <c r="E21">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="E22">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2625,7 +2625,7 @@
       </c>
       <c r="E23">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="E24">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="E25">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="E26">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E27">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2733,7 +2733,7 @@
       </c>
       <c r="E29">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="E30">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2769,7 +2769,7 @@
       </c>
       <c r="E31">
         <f>Table2811[[#This Row],[Price]]</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2784,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E892A3-9A29-BC41-85E1-6E3BF7063D8E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -2830,27 +2830,27 @@
       </c>
       <c r="B2">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="D2">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="E2">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>438</v>
+        <v>484</v>
       </c>
       <c r="F2">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>38.75</v>
+        <v>44.980000000000004</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2862,27 +2862,27 @@
       </c>
       <c r="B3">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C3">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="D3">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E3">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="F3">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="G3">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>35.950000000000003</v>
+        <v>40.6</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -2894,11 +2894,11 @@
       </c>
       <c r="B4">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="D4">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -2906,15 +2906,15 @@
       </c>
       <c r="E4">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>384</v>
+        <v>435</v>
       </c>
       <c r="F4">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>33.33</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
@@ -2926,11 +2926,11 @@
       </c>
       <c r="B5">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="C5">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="D5">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -2938,15 +2938,15 @@
       </c>
       <c r="E5">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>572</v>
+        <v>628</v>
       </c>
       <c r="F5">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G5">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>40.28</v>
+        <v>45.680000000000007</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
@@ -2962,23 +2962,23 @@
       </c>
       <c r="C6">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="D6">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>317</v>
+        <v>377</v>
       </c>
       <c r="F6">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>43.8</v>
+        <v>49.43</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -2990,11 +2990,11 @@
       </c>
       <c r="B7">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>557</v>
+        <v>658</v>
       </c>
       <c r="C7">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D7">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3002,15 +3002,15 @@
       </c>
       <c r="E7">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>764</v>
+        <v>885</v>
       </c>
       <c r="F7">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="G7">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>37.07</v>
+        <v>42.480000000000004</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -3022,27 +3022,27 @@
       </c>
       <c r="B8">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C8">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D8">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="E8">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>357</v>
+        <v>416</v>
       </c>
       <c r="F8">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>36.1</v>
+        <v>42.97</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -3054,11 +3054,11 @@
       </c>
       <c r="B9">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="D9">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3066,15 +3066,15 @@
       </c>
       <c r="E9">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="F9">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G9">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>41.29</v>
+        <v>47.85</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -3086,11 +3086,11 @@
       </c>
       <c r="B10">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="C10">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="D10">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3098,15 +3098,15 @@
       </c>
       <c r="E10">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>564</v>
+        <v>624</v>
       </c>
       <c r="F10">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>29.81</v>
+        <v>33.950000000000003</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -3118,27 +3118,27 @@
       </c>
       <c r="B11">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="D11">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="F11">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G11">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>38.230000000000004</v>
+        <v>44.81</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -3150,27 +3150,27 @@
       </c>
       <c r="B12">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="C12">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="D12">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E12">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>571</v>
+        <v>688</v>
       </c>
       <c r="F12">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="G12">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>29.439999999999998</v>
+        <v>35.26</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -3186,23 +3186,23 @@
       </c>
       <c r="C13">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="D13">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E13">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F13">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="G13">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>39.119999999999997</v>
+        <v>44.449999999999996</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -3214,11 +3214,11 @@
       </c>
       <c r="B14">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>398</v>
+        <v>514</v>
       </c>
       <c r="C14">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="D14">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3226,15 +3226,15 @@
       </c>
       <c r="E14">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>637</v>
+        <v>781</v>
       </c>
       <c r="F14">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="G14">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>38.14</v>
+        <v>44.06</v>
       </c>
       <c r="H14" t="s">
         <v>48</v>
@@ -3246,11 +3246,11 @@
       </c>
       <c r="B15">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>461</v>
+        <v>533</v>
       </c>
       <c r="C15">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="D15">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3258,15 +3258,15 @@
       </c>
       <c r="E15">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>736</v>
+        <v>840</v>
       </c>
       <c r="F15">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="G15">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>37.49</v>
+        <v>42.81</v>
       </c>
       <c r="H15" t="s">
         <v>48</v>
@@ -3278,27 +3278,27 @@
       </c>
       <c r="B16">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="C16">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="D16">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E16">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="F16">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="G16">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>32.510000000000005</v>
+        <v>37.870000000000005</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -3310,27 +3310,27 @@
       </c>
       <c r="B17">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C17">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="D17">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="F17">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G17">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>33.81</v>
+        <v>39.85</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -3342,11 +3342,11 @@
       </c>
       <c r="B18">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="C18">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="D18">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3354,15 +3354,15 @@
       </c>
       <c r="E18">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="F18">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="G18">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>33.74</v>
+        <v>36.68</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -3374,27 +3374,27 @@
       </c>
       <c r="B19">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C19">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D19">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>312</v>
+        <v>377</v>
       </c>
       <c r="F19">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G19">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>24.3</v>
+        <v>29.32</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -3406,11 +3406,11 @@
       </c>
       <c r="B20">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>1055</v>
+        <v>1161</v>
       </c>
       <c r="C20">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="D20">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3418,15 +3418,15 @@
       </c>
       <c r="E20">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>1371</v>
+        <v>1500</v>
       </c>
       <c r="F20">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="G20">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.22</v>
+        <v>51.56</v>
       </c>
       <c r="H20" t="s">
         <v>48</v>
@@ -3438,27 +3438,27 @@
       </c>
       <c r="B21">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C21">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D21">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="F21">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G21">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>38.590000000000003</v>
+        <v>44.06</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -3470,27 +3470,27 @@
       </c>
       <c r="B22">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="C22">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="D22">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="E22">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>498</v>
+        <v>584</v>
       </c>
       <c r="F22">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="G22">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>31.340000000000003</v>
+        <v>36.21</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="B23">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="C23">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
@@ -3514,15 +3514,15 @@
       </c>
       <c r="E23">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="F23">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>28.47</v>
+        <v>31.53</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -3538,23 +3538,23 @@
       </c>
       <c r="C24">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="D24">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="F24">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G24">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>30.240000000000002</v>
+        <v>42.09</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="C25">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>276</v>
+        <v>336</v>
       </c>
       <c r="D25">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3578,15 +3578,15 @@
       </c>
       <c r="E25">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="F25">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.699999999999996</v>
+        <v>53.04</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -3598,27 +3598,27 @@
       </c>
       <c r="B26">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C26">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D26">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E26">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="F26">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G26">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>32.99</v>
+        <v>38.57</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
@@ -3630,27 +3630,27 @@
       </c>
       <c r="B27">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C27">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D27">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="E27">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>342</v>
+        <v>404</v>
       </c>
       <c r="F27">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="G27">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>42.089999999999996</v>
+        <v>50.4</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
@@ -3662,19 +3662,19 @@
       </c>
       <c r="B28">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>685</v>
+        <v>769</v>
       </c>
       <c r="C28">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D28">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="E28">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>1259</v>
+        <v>1415</v>
       </c>
       <c r="F28">
         <f>Table28[[#This Row],[Price]]</f>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="G28">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>38.519999999999996</v>
+        <v>43.47</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
@@ -3694,11 +3694,11 @@
       </c>
       <c r="B29">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C29">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="D29">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3706,15 +3706,15 @@
       </c>
       <c r="E29">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="F29">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G29">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>37.120000000000005</v>
+        <v>44.16</v>
       </c>
       <c r="H29" t="s">
         <v>48</v>
@@ -3726,11 +3726,11 @@
       </c>
       <c r="B30">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="D30">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3738,15 +3738,15 @@
       </c>
       <c r="E30">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="F30">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G30">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>35.11</v>
+        <v>42.25</v>
       </c>
       <c r="H30" t="s">
         <v>48</v>
@@ -3762,23 +3762,23 @@
       </c>
       <c r="C31">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>236</v>
+        <v>291</v>
       </c>
       <c r="D31">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="F31">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>41.08</v>
+        <v>50.4</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>
@@ -3797,7 +3797,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3841,22 +3841,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>7.65</v>
+        <v>13.88</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -3867,22 +3867,22 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="G3">
-        <v>6.15</v>
+        <v>10.8</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -3893,22 +3893,22 @@
         <v>52</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>6.53</v>
+        <v>12.5</v>
       </c>
       <c r="H4" t="s">
         <v>48</v>
@@ -3919,22 +3919,22 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="F5">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="G5">
-        <v>6.08</v>
+        <v>11.48</v>
       </c>
       <c r="H5" t="s">
         <v>48</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>7.5</v>
+        <v>13.13</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -3971,22 +3971,22 @@
         <v>51</v>
       </c>
       <c r="B7">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>201</v>
+        <v>322</v>
       </c>
       <c r="F7">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="G7">
-        <v>9.57</v>
+        <v>14.98</v>
       </c>
       <c r="H7" t="s">
         <v>48</v>
@@ -3997,22 +3997,22 @@
         <v>19</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>11.87</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -4023,22 +4023,22 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G9">
-        <v>9.2899999999999991</v>
+        <v>15.85</v>
       </c>
       <c r="H9" t="s">
         <v>48</v>
@@ -4049,22 +4049,22 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="F10">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>3.11</v>
+        <v>7.25</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -4075,22 +4075,22 @@
         <v>43</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G11">
-        <v>8.1300000000000008</v>
+        <v>14.71</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -4101,22 +4101,22 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E12">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="F12">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="G12">
-        <v>6.74</v>
+        <v>12.56</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -4130,19 +4130,19 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="G13">
-        <v>6.82</v>
+        <v>12.15</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -4153,22 +4153,22 @@
         <v>58</v>
       </c>
       <c r="B14">
-        <v>96</v>
+        <v>212</v>
       </c>
       <c r="C14">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="F14">
-        <v>17.5</v>
+        <v>20.5</v>
       </c>
       <c r="G14">
-        <v>7.54</v>
+        <v>13.46</v>
       </c>
       <c r="H14" t="s">
         <v>48</v>
@@ -4179,22 +4179,22 @@
         <v>50</v>
       </c>
       <c r="B15">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="F15">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="G15">
-        <v>5.49</v>
+        <v>10.81</v>
       </c>
       <c r="H15" t="s">
         <v>48</v>
@@ -4205,22 +4205,22 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>114</v>
+        <v>227</v>
       </c>
       <c r="F16">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="G16">
-        <v>6.91</v>
+        <v>12.27</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -4231,22 +4231,22 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="D17">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E17">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="F17">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G17">
-        <v>8.7100000000000009</v>
+        <v>14.75</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -4257,22 +4257,22 @@
         <v>9</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="F18">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>5.44</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F19">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="G19">
-        <v>4.5</v>
+        <v>9.52</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -4309,22 +4309,22 @@
         <v>49</v>
       </c>
       <c r="B20">
-        <v>195</v>
+        <v>301</v>
       </c>
       <c r="C20">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>233</v>
+        <v>362</v>
       </c>
       <c r="F20">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="G20">
-        <v>8.32</v>
+        <v>13.66</v>
       </c>
       <c r="H20" t="s">
         <v>48</v>
@@ -4335,22 +4335,22 @@
         <v>37</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="F21">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="G21">
-        <v>8.89</v>
+        <v>14.36</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -4361,22 +4361,22 @@
         <v>11</v>
       </c>
       <c r="B22">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E22">
-        <v>89</v>
+        <v>175</v>
       </c>
       <c r="F22">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="G22">
-        <v>5.74</v>
+        <v>10.61</v>
       </c>
       <c r="H22" t="s">
         <v>0</v>
@@ -4387,7 +4387,7 @@
         <v>17</v>
       </c>
       <c r="B23">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C23">
         <v>33</v>
@@ -4396,13 +4396,13 @@
         <v>15</v>
       </c>
       <c r="E23">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="F23">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G23">
-        <v>6.47</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="H23" t="s">
         <v>0</v>
@@ -4416,19 +4416,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="F24">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G24">
-        <v>6.44</v>
+        <v>18.29</v>
       </c>
       <c r="H24" t="s">
         <v>0</v>
@@ -4442,19 +4442,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G25">
-        <v>7.8</v>
+        <v>14.14</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -4465,22 +4465,22 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E26">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="G26">
-        <v>6.29</v>
+        <v>11.87</v>
       </c>
       <c r="H26" t="s">
         <v>0</v>
@@ -4491,22 +4491,22 @@
         <v>35</v>
       </c>
       <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>112</v>
+      </c>
+      <c r="F27">
         <v>7</v>
       </c>
-      <c r="C27">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>50</v>
-      </c>
-      <c r="F27">
-        <v>6.5</v>
-      </c>
       <c r="G27">
-        <v>7.69</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s">
         <v>0</v>
@@ -4517,22 +4517,22 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D28">
-        <v>80</v>
+        <v>125</v>
       </c>
       <c r="E28">
-        <v>221</v>
+        <v>377</v>
       </c>
       <c r="F28">
         <v>31.5</v>
       </c>
       <c r="G28">
-        <v>7.02</v>
+        <v>11.97</v>
       </c>
       <c r="H28" t="s">
         <v>0</v>
@@ -4543,22 +4543,22 @@
         <v>85</v>
       </c>
       <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>76</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>104</v>
+      </c>
+      <c r="F29">
         <v>7</v>
       </c>
-      <c r="C29">
-        <v>36</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>43</v>
-      </c>
-      <c r="F29">
-        <v>5.5</v>
-      </c>
       <c r="G29">
-        <v>7.82</v>
+        <v>14.86</v>
       </c>
       <c r="H29" t="s">
         <v>48</v>
@@ -4569,22 +4569,22 @@
         <v>56</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F30">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="G30">
-        <v>6.31</v>
+        <v>13.45</v>
       </c>
       <c r="H30" t="s">
         <v>48</v>
@@ -4598,19 +4598,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="F31">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>8.18</v>
+        <v>17.5</v>
       </c>
       <c r="H31" t="s">
         <v>0</v>

--- a/fantasygp.xlsx
+++ b/fantasygp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/github.com/squirke1/fantasygp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{670E2396-A735-4941-B762-4AD76F00E176}"/>
+  <xr:revisionPtr revIDLastSave="720" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDABD6CC-08D7-4041-8D41-8A4B07D7D967}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="2" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
   </bookViews>
   <sheets>
     <sheet name="Scoring" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="86">
   <si>
     <t>Driver</t>
   </si>
@@ -377,7 +377,24 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="43">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -822,6 +839,23 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1032,26 +1066,26 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EAF9712F-0836-BD41-9A43-4BB4C5E95EDF}" name="Session"/>
     <tableColumn id="2" xr3:uid="{08A9557F-CDE7-594E-946B-2E0288A4A984}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{9AC3DF6E-6C77-1145-ACC6-E556913AB388}" name="Method" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{24F55E37-ED0F-0043-951C-39B7BE5C82A6}" name="Points" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{9AC3DF6E-6C77-1145-ACC6-E556913AB388}" name="Method" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{24F55E37-ED0F-0043-951C-39B7BE5C82A6}" name="Points" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}" name="Table4" displayName="Table4" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}" name="Table4" displayName="Table4" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:F10" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
     <sortCondition descending="1" ref="F1:F10"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1656D989-86EA-7140-B127-D5AF67B0B41F}" name="Car" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{449213B6-9290-3540-8A86-34E632F071C0}" name="Race" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{500D1721-3543-C44D-831B-342426DC8E48}" name="Bonus" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9231F842-3D3D-FD4D-95D4-D20FA06B5A6F}" name="Total" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{28FFD537-948F-2642-B6CC-B56707164790}" name="Price" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{CDCA00EE-B561-9F44-83C2-41550CA0E6AE}" name="Value" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{1656D989-86EA-7140-B127-D5AF67B0B41F}" name="Car" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{449213B6-9290-3540-8A86-34E632F071C0}" name="Race" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{500D1721-3543-C44D-831B-342426DC8E48}" name="Bonus" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{9231F842-3D3D-FD4D-95D4-D20FA06B5A6F}" name="Total" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{28FFD537-948F-2642-B6CC-B56707164790}" name="Price" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{CDCA00EE-B561-9F44-83C2-41550CA0E6AE}" name="Value" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1061,16 +1095,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA9C8617-770E-3E4A-B13F-022FE4883863}" name="Table8" displayName="Table8" ref="A1:E31" totalsRowShown="0">
   <autoFilter ref="A1:E31" xr:uid="{BA9C8617-770E-3E4A-B13F-022FE4883863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
-    <sortCondition ref="A1:A31"/>
+    <sortCondition ref="B1:B31"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B3E7E8A6-3E5D-E546-9891-4DE65B6D1C77}" name="Variable"/>
     <tableColumn id="2" xr3:uid="{5EEA6B6A-9130-2240-82D0-A8378D85B5FF}" name="Driver Or Team"/>
     <tableColumn id="3" xr3:uid="{0B42391F-AC45-FE43-ADEB-573CA251273E}" name="Team"/>
     <tableColumn id="5" xr3:uid="{E938D90D-F819-3A48-84F2-21861455E047}" name="Original Price"/>
-    <tableColumn id="4" xr3:uid="{56A949C4-3DF1-1549-AAB2-0F68C76F55BF}" name="Current Price">
-      <calculatedColumnFormula>Table2811[[#This Row],[Price]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{56A949C4-3DF1-1549-AAB2-0F68C76F55BF}" name="Current Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1079,12 +1111,12 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{BE34461F-9B12-7D42-B888-6386DA1FE709}" name="Table2811" displayName="Table2811" ref="A1:H31" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition ref="A1:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
+    <sortCondition ref="H1:H31"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DAD8D052-B3F4-CA4C-AF35-972A404B4EDE}" name="Variable"/>
-    <tableColumn id="3" xr3:uid="{5D7ED208-C1EF-3948-80CB-0212370FA9F3}" name="Race" dataDxfId="38">
+    <tableColumn id="3" xr3:uid="{5D7ED208-C1EF-3948-80CB-0212370FA9F3}" name="Race" dataDxfId="40">
       <calculatedColumnFormula>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B2111656-DCD1-8E4E-BCDE-0FFB5A45F573}" name="Bonus">
@@ -1096,10 +1128,10 @@
     <tableColumn id="6" xr3:uid="{A2E404F4-1418-CB47-B949-7C3F8B4E048C}" name="Total">
       <calculatedColumnFormula>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A73188E9-9E7C-FD4B-8F0A-4D46A6423D8F}" name="Price" dataDxfId="37">
+    <tableColumn id="7" xr3:uid="{A73188E9-9E7C-FD4B-8F0A-4D46A6423D8F}" name="Price" dataDxfId="39">
       <calculatedColumnFormula>Table28[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0B2B2C89-B8F6-034D-9BC3-3BF75865619A}" name="Value" dataDxfId="36">
+    <tableColumn id="8" xr3:uid="{0B2B2C89-B8F6-034D-9BC3-3BF75865619A}" name="Value" dataDxfId="38">
       <calculatedColumnFormula>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F44054C3-0A24-D747-A92C-B46D0E4F6DDB}" name="Type"/>
@@ -1112,7 +1144,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8F0FF1E1-621C-F243-A82B-0EAEA81B236B}" name="Table28" displayName="Table28" ref="A1:H31" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
-    <sortCondition ref="A1:A31"/>
+    <sortCondition ref="H1:H31"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60485367-9CB0-8D47-BD1C-F61FAE3C1809}" name="Variable"/>
@@ -1160,58 +1192,59 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167038ED-A629-4347-B2BF-36D4B44C954E}" name="Table3" displayName="Table3" ref="A1:G21" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167038ED-A629-4347-B2BF-36D4B44C954E}" name="Table3" displayName="Table3" ref="A1:G21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:G21" xr:uid="{167038ED-A629-4347-B2BF-36D4B44C954E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B7E6ED44-FBF4-5644-B4B4-74ABEA9A9552}" name="Driver" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{9F0823C1-4006-0049-8E39-6BAA875765C9}" name="Race" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{C4EEA0BC-6E2D-DD4F-BCB6-86125DD3C2D9}" name="Bonus" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{87F9F944-313E-DF40-A190-BA95E3CE5271}" name="Qualy" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{E20A20DA-85AC-0649-B739-19B3D4C29EA2}" name="Total" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{3E7AC695-E0EB-9745-8B4B-E5DD88DD0802}" name="Cost" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{9203FBA0-FBE9-BA40-81A0-8C2B35F51A74}" name="Value" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{B7E6ED44-FBF4-5644-B4B4-74ABEA9A9552}" name="Driver" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{9F0823C1-4006-0049-8E39-6BAA875765C9}" name="Race" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{C4EEA0BC-6E2D-DD4F-BCB6-86125DD3C2D9}" name="Bonus" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{87F9F944-313E-DF40-A190-BA95E3CE5271}" name="Qualy" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{E20A20DA-85AC-0649-B739-19B3D4C29EA2}" name="Total" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{3E7AC695-E0EB-9745-8B4B-E5DD88DD0802}" name="Cost" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{9203FBA0-FBE9-BA40-81A0-8C2B35F51A74}" name="Value" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}" name="Table5" displayName="Table5" ref="A1:F11" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
-  <autoFilter ref="A1:F11" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}" name="Table5" displayName="Table5" ref="A1:G11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:G11" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="A1:A11"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3ABC49DF-DBDB-2B4A-BAC9-F3196AD0DD0E}" name="Car" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{B1F3DE3C-18E5-2C40-9D9E-6AE86B5A103F}" name="Race" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{05F2AEE6-5DBC-6C42-9C59-A0929C11B2E2}" name="Bonus" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{FAC1144C-7F83-E040-869C-1CC04A1A9F1F}" name="Total" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{897AD203-02D8-CB46-88C1-D58CC5449801}" name="Cost" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{15E6A59E-7E37-2B47-947B-505DA2FCCEE1}" name="Value" dataDxfId="19"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3ABC49DF-DBDB-2B4A-BAC9-F3196AD0DD0E}" name="Car" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{B1F3DE3C-18E5-2C40-9D9E-6AE86B5A103F}" name="Race" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{05F2AEE6-5DBC-6C42-9C59-A0929C11B2E2}" name="Bonus" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00D735FC-3DC3-674E-9D38-4628A231F3D3}" name="Qualy" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{FAC1144C-7F83-E040-869C-1CC04A1A9F1F}" name="Total" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{897AD203-02D8-CB46-88C1-D58CC5449801}" name="Cost" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{15E6A59E-7E37-2B47-947B-505DA2FCCEE1}" name="Value" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBB231E0-FD07-5748-A941-7A1C56BD477D}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBB231E0-FD07-5748-A941-7A1C56BD477D}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:I21" xr:uid="{DBB231E0-FD07-5748-A941-7A1C56BD477D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
     <sortCondition descending="1" ref="H1:H21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A27409F7-13F1-D747-885A-3B4350BF3BF6}" name="Driver" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{09F203B6-751C-FF44-B9C5-677273F662BE}" name="Team" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{46BC274C-895C-8747-BF4B-E69BA42E33AE}" name="Race" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{9EFB8883-561F-F44C-A46B-FD369FE28A5E}" name="Qualy" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{F6EA7EE3-7B39-BA44-B685-C2057C9581CC}" name="Bonus" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{565CE414-38FC-7D40-88BE-9DE5571DDF52}" name="Total" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{8B4FE645-A32E-B642-84BA-D5A9308374F1}" name="Price" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{B96EE23B-3D95-7249-AED7-1027BCF06A59}" name="Value" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{1A3E8908-F0EF-3343-AE92-5CD131F53D9F}" name="Alias" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{A27409F7-13F1-D747-885A-3B4350BF3BF6}" name="Driver" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{09F203B6-751C-FF44-B9C5-677273F662BE}" name="Team" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{46BC274C-895C-8747-BF4B-E69BA42E33AE}" name="Race" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{9EFB8883-561F-F44C-A46B-FD369FE28A5E}" name="Qualy" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{F6EA7EE3-7B39-BA44-B685-C2057C9581CC}" name="Bonus" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{565CE414-38FC-7D40-88BE-9DE5571DDF52}" name="Total" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{8B4FE645-A32E-B642-84BA-D5A9308374F1}" name="Price" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{B96EE23B-3D95-7249-AED7-1027BCF06A59}" name="Value" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{1A3E8908-F0EF-3343-AE92-5CD131F53D9F}" name="Alias" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2202,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F80FCC-BFEE-3840-AE96-7B965E6164C7}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2245,9 +2278,8 @@
       <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>8</v>
+      <c r="E2" s="4">
+        <v>8.5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2263,512 +2295,483 @@
       <c r="D3">
         <v>12</v>
       </c>
-      <c r="E3">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>12.5</v>
+      <c r="E3" s="4">
+        <v>10.5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <f>Table2811[[#This Row],[Price]]</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>11.5</v>
+        <v>8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="D6">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>21.5</v>
+        <v>6</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>18</v>
+      </c>
+      <c r="E8" s="4">
+        <v>18.5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>57</v>
       </c>
       <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>5</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D10">
-        <v>19</v>
-      </c>
-      <c r="E10">
-        <f>Table2811[[#This Row],[Price]]</f>
         <v>16</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="4">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>19.5</v>
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>13</v>
+      </c>
+      <c r="E13" s="4">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D14">
-        <v>16</v>
-      </c>
-      <c r="E14">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>20.5</v>
+        <v>5</v>
+      </c>
+      <c r="E14" s="4">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15">
-        <v>18</v>
-      </c>
-      <c r="E15">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>18.5</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="4">
+        <v>16.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16" s="4">
         <v>16</v>
-      </c>
-      <c r="E16">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>18.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D19">
-        <v>13</v>
-      </c>
-      <c r="E19">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>12.5</v>
+        <v>7</v>
+      </c>
+      <c r="E19" s="4">
+        <v>7.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20">
-        <v>27</v>
-      </c>
-      <c r="E20">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>26.5</v>
+        <v>30</v>
+      </c>
+      <c r="E20" s="4">
+        <v>30.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21">
         <v>5</v>
       </c>
-      <c r="E21">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>5.5</v>
+      <c r="E21" s="4">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>16.5</v>
+        <v>8</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>3.5</v>
+        <v>18</v>
+      </c>
+      <c r="E24" s="4">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="D25">
-        <v>6</v>
-      </c>
-      <c r="E25">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D26">
-        <v>8</v>
-      </c>
-      <c r="E26">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>16</v>
+      </c>
+      <c r="E26" s="4">
+        <v>23.5</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="E27" s="4">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>49</v>
       </c>
       <c r="D28">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>31.5</v>
+        <v>27</v>
+      </c>
+      <c r="E28" s="4">
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29">
         <v>6</v>
       </c>
-      <c r="E29">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>7</v>
+      <c r="E29" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30">
-        <f>Table2811[[#This Row],[Price]]</f>
-        <v>5.5</v>
+      <c r="E30" s="4">
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <f>Table2811[[#This Row],[Price]]</f>
+        <v>6</v>
+      </c>
+      <c r="E31" s="4">
         <v>6</v>
       </c>
     </row>
@@ -2784,8 +2787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E892A3-9A29-BC41-85E1-6E3BF7063D8E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2830,27 +2833,27 @@
       </c>
       <c r="B2">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="D2">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="E2">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="F2">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G2">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.980000000000004</v>
+        <v>51.1</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2862,27 +2865,27 @@
       </c>
       <c r="B3">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="C3">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D3">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="E3">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="F3">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="G3">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>40.6</v>
+        <v>46.66</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -2890,23 +2893,23 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D4">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E4">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>435</v>
+        <v>496</v>
       </c>
       <c r="F4">
         <f>Table28[[#This Row],[Price]]</f>
@@ -2914,71 +2917,71 @@
       </c>
       <c r="G4">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>39.299999999999997</v>
+        <v>46.93</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="C5">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="D5">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>628</v>
+        <v>609</v>
       </c>
       <c r="F5">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="G5">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>45.680000000000007</v>
+        <v>56.800000000000004</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="C6">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="D6">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>377</v>
+        <v>530</v>
       </c>
       <c r="F6">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G6">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>49.43</v>
+        <v>49.879999999999995</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -2986,63 +2989,63 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>658</v>
+        <v>428</v>
       </c>
       <c r="C7">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>227</v>
+        <v>271</v>
       </c>
       <c r="D7">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>885</v>
+        <v>759</v>
       </c>
       <c r="F7">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>21.5</v>
+        <v>9.5</v>
       </c>
       <c r="G7">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>42.480000000000004</v>
+        <v>48.129999999999995</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>65</v>
+        <v>239</v>
       </c>
       <c r="C8">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="D8">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="E8">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>416</v>
+        <v>646</v>
       </c>
       <c r="F8">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="G8">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>42.97</v>
+        <v>48.34</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -3050,11 +3053,11 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
@@ -3062,51 +3065,51 @@
       </c>
       <c r="D9">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="F9">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>47.85</v>
+        <v>48.8</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>289</v>
+        <v>433</v>
       </c>
       <c r="C10">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>250</v>
+        <v>265</v>
       </c>
       <c r="D10">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>85</v>
+        <v>165</v>
       </c>
       <c r="E10">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>624</v>
+        <v>863</v>
       </c>
       <c r="F10">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>33.950000000000003</v>
+        <v>44.45</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -3114,31 +3117,31 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="D11">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="E11">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="F11">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.81</v>
+        <v>49.21</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -3146,11 +3149,11 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C12">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
@@ -3158,19 +3161,19 @@
       </c>
       <c r="D12">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>688</v>
+        <v>636</v>
       </c>
       <c r="F12">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="G12">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>35.26</v>
+        <v>36.489999999999995</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -3178,31 +3181,31 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="C13">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D13">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E13">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>273</v>
+        <v>445</v>
       </c>
       <c r="F13">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>17</v>
       </c>
       <c r="G13">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.449999999999996</v>
+        <v>47.059999999999995</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -3210,75 +3213,75 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>514</v>
+        <v>314</v>
       </c>
       <c r="C14">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="D14">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>781</v>
+        <v>641</v>
       </c>
       <c r="F14">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>20.5</v>
+        <v>7</v>
       </c>
       <c r="G14">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.06</v>
+        <v>50.03</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C15">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D15">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E15">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>840</v>
+        <v>919</v>
       </c>
       <c r="F15">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="G15">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>42.81</v>
+        <v>48.91</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="C16">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
@@ -3286,19 +3289,19 @@
       </c>
       <c r="D16">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="F16">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="G16">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>37.870000000000005</v>
+        <v>41.790000000000006</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -3306,31 +3309,31 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C17">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="D17">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="E17">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>382</v>
+        <v>347</v>
       </c>
       <c r="F17">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>39.85</v>
+        <v>52.77</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -3338,31 +3341,31 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="C18">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="D18">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="E18">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="F18">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G18">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>36.68</v>
+        <v>46.8</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -3370,31 +3373,31 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B19">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="C19">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>139</v>
+        <v>207</v>
       </c>
       <c r="D19">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="E19">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="F19">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>12.5</v>
+        <v>7.5</v>
       </c>
       <c r="G19">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>29.32</v>
+        <v>41.53</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -3402,63 +3405,63 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B20">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>1161</v>
+        <v>1137</v>
       </c>
       <c r="C20">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>339</v>
+        <v>386</v>
       </c>
       <c r="D20">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E20">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>1500</v>
+        <v>1693</v>
       </c>
       <c r="F20">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="G20">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>51.56</v>
+        <v>56.099999999999994</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="D21">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="F21">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="G21">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.06</v>
+        <v>60.95</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -3466,111 +3469,111 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>244</v>
+        <v>186</v>
       </c>
       <c r="C22">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="D22">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E22">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="F22">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>16.5</v>
+        <v>6.5</v>
       </c>
       <c r="G22">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>36.21</v>
+        <v>46.52</v>
       </c>
       <c r="H22" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="C23">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>138</v>
+        <v>222</v>
       </c>
       <c r="D23">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="F23">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>31.53</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B24">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>1</v>
+        <v>346</v>
       </c>
       <c r="C24">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="D24">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>159</v>
+        <v>549</v>
       </c>
       <c r="F24">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>3.5</v>
+        <v>21</v>
       </c>
       <c r="G24">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>42.09</v>
+        <v>45.42</v>
       </c>
       <c r="H24" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="B25">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="C25">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="D25">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3578,15 +3581,15 @@
       </c>
       <c r="E25">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="F25">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G25">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>53.04</v>
+        <v>60.4</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
@@ -3594,111 +3597,111 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B26">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="C26">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="D26">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>356</v>
+        <v>740</v>
       </c>
       <c r="F26">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="G26">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>38.57</v>
+        <v>46.83</v>
       </c>
       <c r="H26" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B27">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="C27">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="D27">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E27">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>404</v>
+        <v>678</v>
       </c>
       <c r="F27">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G27">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>50.4</v>
+        <v>51.95</v>
       </c>
       <c r="H27" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B28">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>769</v>
+        <v>983</v>
       </c>
       <c r="C28">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="D28">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>375</v>
+        <v>250</v>
       </c>
       <c r="E28">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>1415</v>
+        <v>1562</v>
       </c>
       <c r="F28">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>31.5</v>
+        <v>25</v>
       </c>
       <c r="G28">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>43.47</v>
+        <v>52.46</v>
       </c>
       <c r="H28" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="C29">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="D29">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3706,15 +3709,15 @@
       </c>
       <c r="E29">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="F29">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.16</v>
+        <v>52.129999999999995</v>
       </c>
       <c r="H29" t="s">
         <v>48</v>
@@ -3722,15 +3725,15 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C30">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="D30">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3738,15 +3741,15 @@
       </c>
       <c r="E30">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>290</v>
+        <v>377</v>
       </c>
       <c r="F30">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>42.25</v>
+        <v>48.93</v>
       </c>
       <c r="H30" t="s">
         <v>48</v>
@@ -3754,23 +3757,23 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B31">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C31">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D31">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E31">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="F31">
         <f>Table28[[#This Row],[Price]]</f>
@@ -3778,10 +3781,10 @@
       </c>
       <c r="G31">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>50.4</v>
+        <v>51.9</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3797,7 +3800,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="F2" sqref="F2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3837,52 +3840,52 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>59</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>96</v>
+      </c>
+      <c r="D2" s="4">
+        <v>70</v>
+      </c>
+      <c r="E2" s="4">
+        <v>170</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4">
         <v>50</v>
       </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
-      <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <v>13.88</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>64</v>
-      </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3">
-        <v>135</v>
-      </c>
-      <c r="F3">
-        <v>12.5</v>
-      </c>
-      <c r="G3">
-        <v>10.8</v>
+      <c r="E3" s="4">
+        <v>177</v>
+      </c>
+      <c r="F3" s="4">
+        <v>10.5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>16.86</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -3890,730 +3893,730 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4">
+        <v>75</v>
+      </c>
+      <c r="E4" s="4">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4">
+        <v>20.13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>113</v>
+      </c>
+      <c r="F5" s="4">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
+        <v>258</v>
+      </c>
+      <c r="F6" s="4">
+        <v>19</v>
+      </c>
+      <c r="G6" s="4">
+        <v>13.58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="4">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4">
+        <v>114</v>
+      </c>
+      <c r="D7" s="4">
+        <v>60</v>
+      </c>
+      <c r="E7" s="4">
+        <v>196</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20.63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>177</v>
+      </c>
+      <c r="C8" s="4">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4">
+        <v>60</v>
+      </c>
+      <c r="E8" s="4">
+        <v>319</v>
+      </c>
+      <c r="F8" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>17.239999999999998</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>96</v>
+      </c>
+      <c r="D9" s="4">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4">
+        <v>126</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>16.8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4">
+        <v>199</v>
+      </c>
+      <c r="C10" s="4">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4">
+        <v>90</v>
+      </c>
+      <c r="E10" s="4">
+        <v>355</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20</v>
+      </c>
+      <c r="G10" s="4">
+        <v>17.75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4">
+        <v>107</v>
+      </c>
+      <c r="D11" s="4">
+        <v>60</v>
+      </c>
+      <c r="E11" s="4">
+        <v>172</v>
+      </c>
+      <c r="F11" s="4">
+        <v>9</v>
+      </c>
+      <c r="G11" s="4">
+        <v>19.11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4">
+        <v>131</v>
+      </c>
+      <c r="C12" s="4">
+        <v>57</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>193</v>
+      </c>
+      <c r="F12" s="4">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4">
+        <v>13.79</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4">
+        <v>167</v>
+      </c>
+      <c r="C13" s="4">
+        <v>69</v>
+      </c>
+      <c r="D13" s="4">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>251</v>
+      </c>
+      <c r="F13" s="4">
+        <v>17</v>
+      </c>
+      <c r="G13" s="4">
+        <v>14.76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="4">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>136</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="4">
+        <v>19.43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>116</v>
+      </c>
+      <c r="C15" s="4">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4">
+        <v>80</v>
+      </c>
+      <c r="E15" s="4">
+        <v>279</v>
+      </c>
+      <c r="F15" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="G15" s="4">
+        <v>16.91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4">
+        <v>168</v>
+      </c>
+      <c r="C16" s="4">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4">
+        <v>35</v>
+      </c>
+      <c r="E16" s="4">
+        <v>259</v>
+      </c>
+      <c r="F16" s="4">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>68</v>
+      </c>
+      <c r="D17" s="4">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4">
+        <v>83</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3</v>
+      </c>
+      <c r="G17" s="4">
+        <v>27.67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="4">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4">
+        <v>89</v>
+      </c>
+      <c r="D18" s="4">
+        <v>35</v>
+      </c>
+      <c r="E18" s="4">
+        <v>148</v>
+      </c>
+      <c r="F18" s="4">
+        <v>8</v>
+      </c>
+      <c r="G18" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="4">
+        <v>22</v>
+      </c>
+      <c r="C19" s="4">
+        <v>91</v>
+      </c>
+      <c r="D19" s="4">
+        <v>50</v>
+      </c>
+      <c r="E19" s="4">
+        <v>163</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>21.73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4">
+        <v>277</v>
+      </c>
+      <c r="C20" s="4">
+        <v>108</v>
+      </c>
+      <c r="D20" s="4">
+        <v>170</v>
+      </c>
+      <c r="E20" s="4">
+        <v>555</v>
+      </c>
+      <c r="F20" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0</v>
+      </c>
+      <c r="C21" s="4">
+        <v>115</v>
+      </c>
+      <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4">
+        <v>125</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4">
+        <v>31.25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B4">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>95</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
+      <c r="B22" s="4">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4">
+        <v>125</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>136</v>
+      </c>
+      <c r="F22" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="G22" s="4">
+        <v>20.92</v>
+      </c>
+      <c r="H22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4">
+        <v>73</v>
+      </c>
+      <c r="C23" s="4">
+        <v>117</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>190</v>
+      </c>
+      <c r="F23" s="4">
+        <v>10</v>
+      </c>
+      <c r="G23" s="4">
+        <v>19</v>
+      </c>
+      <c r="H23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="4">
+        <v>345</v>
+      </c>
+      <c r="C24" s="4">
+        <v>109</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0</v>
+      </c>
+      <c r="E24" s="4">
+        <v>454</v>
+      </c>
+      <c r="F24" s="4">
+        <v>21</v>
+      </c>
+      <c r="G24" s="4">
+        <v>21.62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="4">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4">
+        <v>145</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" s="4">
+        <v>172</v>
+      </c>
+      <c r="F25" s="4">
         <v>8</v>
       </c>
-      <c r="G4">
-        <v>12.5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5">
-        <v>58</v>
-      </c>
-      <c r="C5">
-        <v>74</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>132</v>
-      </c>
-      <c r="F5">
-        <v>11.5</v>
-      </c>
-      <c r="G5">
-        <v>11.48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>55</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>105</v>
-      </c>
-      <c r="F6">
-        <v>8</v>
-      </c>
-      <c r="G6">
-        <v>13.13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7">
-        <v>252</v>
-      </c>
-      <c r="C7">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>322</v>
-      </c>
-      <c r="F7">
+      <c r="G25" s="4">
         <v>21.5</v>
-      </c>
-      <c r="G7">
-        <v>14.98</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>89</v>
-      </c>
-      <c r="F8">
-        <v>7.5</v>
-      </c>
-      <c r="G8">
-        <v>11.87</v>
-      </c>
-      <c r="H8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>96</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>103</v>
-      </c>
-      <c r="F9">
-        <v>6.5</v>
-      </c>
-      <c r="G9">
-        <v>15.85</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>55</v>
-      </c>
-      <c r="C10">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>116</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>7.25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11">
-        <v>84</v>
-      </c>
-      <c r="D11">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>125</v>
-      </c>
-      <c r="F11">
-        <v>8.5</v>
-      </c>
-      <c r="G11">
-        <v>14.71</v>
-      </c>
-      <c r="H11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>138</v>
-      </c>
-      <c r="C12">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>245</v>
-      </c>
-      <c r="F12">
-        <v>19.5</v>
-      </c>
-      <c r="G12">
-        <v>12.56</v>
-      </c>
-      <c r="H12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>58</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>79</v>
-      </c>
-      <c r="F13">
-        <v>6.5</v>
-      </c>
-      <c r="G13">
-        <v>12.15</v>
-      </c>
-      <c r="H13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14">
-        <v>212</v>
-      </c>
-      <c r="C14">
-        <v>64</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>276</v>
-      </c>
-      <c r="F14">
-        <v>20.5</v>
-      </c>
-      <c r="G14">
-        <v>13.46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>124</v>
-      </c>
-      <c r="C15">
-        <v>76</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>200</v>
-      </c>
-      <c r="F15">
-        <v>18.5</v>
-      </c>
-      <c r="G15">
-        <v>10.81</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>131</v>
-      </c>
-      <c r="C16">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>227</v>
-      </c>
-      <c r="F16">
-        <v>18.5</v>
-      </c>
-      <c r="G16">
-        <v>12.27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>2</v>
-      </c>
-      <c r="C17">
-        <v>81</v>
-      </c>
-      <c r="D17">
-        <v>35</v>
-      </c>
-      <c r="E17">
-        <v>118</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17">
-        <v>14.75</v>
-      </c>
-      <c r="H17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18">
-        <v>107</v>
-      </c>
-      <c r="C18">
-        <v>27</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>134</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>81</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <v>119</v>
-      </c>
-      <c r="F19">
-        <v>12.5</v>
-      </c>
-      <c r="G19">
-        <v>9.52</v>
-      </c>
-      <c r="H19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20">
-        <v>301</v>
-      </c>
-      <c r="C20">
-        <v>61</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>362</v>
-      </c>
-      <c r="F20">
-        <v>26.5</v>
-      </c>
-      <c r="G20">
-        <v>13.66</v>
-      </c>
-      <c r="H20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>50</v>
-      </c>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21">
-        <v>79</v>
-      </c>
-      <c r="F21">
-        <v>5.5</v>
-      </c>
-      <c r="G21">
-        <v>14.36</v>
-      </c>
-      <c r="H21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22">
-        <v>69</v>
-      </c>
-      <c r="C22">
-        <v>51</v>
-      </c>
-      <c r="D22">
-        <v>55</v>
-      </c>
-      <c r="E22">
-        <v>175</v>
-      </c>
-      <c r="F22">
-        <v>16.5</v>
-      </c>
-      <c r="G22">
-        <v>10.61</v>
-      </c>
-      <c r="H22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23">
-        <v>114</v>
-      </c>
-      <c r="C23">
-        <v>33</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23">
-        <v>162</v>
-      </c>
-      <c r="F23">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>9.5299999999999994</v>
-      </c>
-      <c r="H23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>59</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>64</v>
-      </c>
-      <c r="F24">
-        <v>3.5</v>
-      </c>
-      <c r="G24">
-        <v>18.29</v>
-      </c>
-      <c r="H24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>99</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>99</v>
-      </c>
-      <c r="F25">
-        <v>7</v>
-      </c>
-      <c r="G25">
-        <v>14.14</v>
       </c>
       <c r="H25" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>47</v>
-      </c>
-      <c r="D26">
+      <c r="A26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="4">
+        <v>366</v>
+      </c>
+      <c r="C26" s="4">
+        <v>107</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <v>473</v>
+      </c>
+      <c r="F26" s="4">
+        <v>23.5</v>
+      </c>
+      <c r="G26" s="4">
+        <v>20.13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="4">
+        <v>266</v>
+      </c>
+      <c r="C27" s="4">
+        <v>120</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0</v>
+      </c>
+      <c r="E27" s="4">
+        <v>386</v>
+      </c>
+      <c r="F27" s="4">
+        <v>22</v>
+      </c>
+      <c r="G27" s="4">
+        <v>17.55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="4">
+        <v>408</v>
+      </c>
+      <c r="C28" s="4">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0</v>
+      </c>
+      <c r="E28" s="4">
+        <v>524</v>
+      </c>
+      <c r="F28" s="4">
         <v>25</v>
       </c>
-      <c r="E26">
-        <v>89</v>
-      </c>
-      <c r="F26">
-        <v>7.5</v>
-      </c>
-      <c r="G26">
-        <v>11.87</v>
-      </c>
-      <c r="H26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>58</v>
-      </c>
-      <c r="D27">
-        <v>35</v>
-      </c>
-      <c r="E27">
-        <v>112</v>
-      </c>
-      <c r="F27">
-        <v>7</v>
-      </c>
-      <c r="G27">
-        <v>16</v>
-      </c>
-      <c r="H27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28">
-        <v>194</v>
-      </c>
-      <c r="C28">
-        <v>58</v>
-      </c>
-      <c r="D28">
-        <v>125</v>
-      </c>
-      <c r="E28">
-        <v>377</v>
-      </c>
-      <c r="F28">
-        <v>31.5</v>
-      </c>
-      <c r="G28">
-        <v>11.97</v>
+      <c r="G28" s="4">
+        <v>20.96</v>
       </c>
       <c r="H28" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>76</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>104</v>
-      </c>
-      <c r="F29">
-        <v>7</v>
-      </c>
-      <c r="G29">
-        <v>14.86</v>
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>137</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0</v>
+      </c>
+      <c r="E29" s="4">
+        <v>137</v>
+      </c>
+      <c r="F29" s="4">
+        <v>6</v>
+      </c>
+      <c r="G29" s="4">
+        <v>22.83</v>
       </c>
       <c r="H29" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>56</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30">
-        <v>72</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>74</v>
-      </c>
-      <c r="F30">
-        <v>5.5</v>
-      </c>
-      <c r="G30">
-        <v>13.45</v>
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4">
+        <v>34</v>
+      </c>
+      <c r="C30" s="4">
+        <v>127</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+      <c r="E30" s="4">
+        <v>161</v>
+      </c>
+      <c r="F30" s="4">
+        <v>8</v>
+      </c>
+      <c r="G30" s="4">
+        <v>20.13</v>
       </c>
       <c r="H30" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>5</v>
-      </c>
-      <c r="E31">
-        <v>105</v>
-      </c>
-      <c r="F31">
+      <c r="A31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="4">
+        <v>4</v>
+      </c>
+      <c r="C31" s="4">
+        <v>110</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <v>114</v>
+      </c>
+      <c r="F31" s="4">
         <v>6</v>
       </c>
-      <c r="G31">
-        <v>17.5</v>
+      <c r="G31" s="4">
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5461,7 +5464,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5498,7 +5501,7 @@
         <v>76</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>93.05</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -5522,7 +5525,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5555,22 +5558,22 @@
         <v>41</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="D2" s="4">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="E2" s="4">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="F2" s="4">
         <v>8.5</v>
       </c>
       <c r="G2" s="4">
-        <v>2.59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -5578,321 +5581,321 @@
         <v>27</v>
       </c>
       <c r="B3" s="4">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D3" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E3" s="4">
-        <v>32</v>
+        <v>177</v>
       </c>
       <c r="F3" s="4">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="G3" s="4">
-        <v>2.46</v>
+        <v>16.86</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B4" s="4">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C4" s="4">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4">
-        <v>2</v>
+        <v>20.13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B5" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4">
+        <v>82</v>
+      </c>
+      <c r="D5" s="4">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4">
+        <v>113</v>
+      </c>
+      <c r="F5" s="4">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
-        <v>10</v>
-      </c>
-      <c r="E5" s="4">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.5</v>
-      </c>
       <c r="G5" s="4">
-        <v>2.73</v>
+        <v>22.6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>150</v>
+      </c>
+      <c r="C6" s="4">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
+        <v>258</v>
+      </c>
+      <c r="F6" s="4">
         <v>19</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>6</v>
-      </c>
       <c r="G6" s="4">
-        <v>0.67</v>
+        <v>13.58</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D7" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E7" s="4">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="F7" s="4">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="G7" s="4">
-        <v>0.67</v>
+        <v>20.63</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B8" s="4">
-        <v>1</v>
+        <v>177</v>
       </c>
       <c r="C8" s="4">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D8" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E8" s="4">
-        <v>21</v>
+        <v>319</v>
       </c>
       <c r="F8" s="4">
-        <v>7</v>
+        <v>18.5</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>17.239999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B9" s="4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="D9" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="F9" s="4">
-        <v>18.5</v>
+        <v>7.5</v>
       </c>
       <c r="G9" s="4">
-        <v>2.3199999999999998</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="C10" s="4">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="D10" s="4">
-        <v>5</v>
+        <v>90</v>
       </c>
       <c r="E10" s="4">
-        <v>18</v>
+        <v>355</v>
       </c>
       <c r="F10" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>17.75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4">
-        <v>7</v>
+        <v>107</v>
       </c>
       <c r="D11" s="4">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="F11" s="4">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="G11" s="4">
-        <v>1.55</v>
+        <v>19.11</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C12" s="4">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D12" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E12" s="4">
-        <v>32</v>
+        <v>193</v>
       </c>
       <c r="F12" s="4">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="G12" s="4">
-        <v>3.76</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="C13" s="4">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D13" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" s="4">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="F13" s="4">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G13" s="4">
-        <v>2.1</v>
+        <v>14.76</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B14" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
+        <v>89</v>
+      </c>
+      <c r="D14" s="4">
+        <v>35</v>
+      </c>
+      <c r="E14" s="4">
+        <v>136</v>
+      </c>
+      <c r="F14" s="4">
         <v>7</v>
       </c>
-      <c r="D14" s="4">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4">
-        <v>13.5</v>
-      </c>
       <c r="G14" s="4">
-        <v>2.0699999999999998</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B15" s="4">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C15" s="4">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4">
-        <v>7</v>
+        <v>279</v>
       </c>
       <c r="F15" s="4">
-        <v>4</v>
+        <v>16.5</v>
       </c>
       <c r="G15" s="4">
-        <v>1.75</v>
+        <v>16.91</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="C16" s="4">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D16" s="4">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="F16" s="4">
         <v>16</v>
       </c>
       <c r="G16" s="4">
-        <v>2.5</v>
+        <v>16.190000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -5903,19 +5906,19 @@
         <v>0</v>
       </c>
       <c r="C17" s="4">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="F17" s="4">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="G17" s="4">
-        <v>2.86</v>
+        <v>27.67</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -5923,22 +5926,22 @@
         <v>29</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4">
-        <v>5</v>
+        <v>148</v>
       </c>
       <c r="F18" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G18" s="4">
-        <v>0.71</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -5946,22 +5949,22 @@
         <v>35</v>
       </c>
       <c r="B19" s="4">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C19" s="4">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="D19" s="4">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E19" s="4">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="F19" s="4">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G19" s="4">
-        <v>2.5</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -5969,22 +5972,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="4">
-        <v>51</v>
+        <v>277</v>
       </c>
       <c r="C20" s="4">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="D20" s="4">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="E20" s="4">
-        <v>91</v>
+        <v>555</v>
       </c>
       <c r="F20" s="4">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="G20" s="4">
-        <v>2.94</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -5995,19 +5998,19 @@
         <v>0</v>
       </c>
       <c r="C21" s="4">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="D21" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="F21" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4">
-        <v>3.5</v>
+        <v>31.25</v>
       </c>
     </row>
   </sheetData>
@@ -6020,15 +6023,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408B8F7A-4BC3-F846-8E49-AFB3581F12D0}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F11"/>
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -6039,156 +6042,180 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="4">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>7</v>
+        <v>136</v>
       </c>
       <c r="F2" s="4">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>20.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B3" s="4">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="D3" s="4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="F3" s="4">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B4" s="4">
-        <v>49</v>
+        <v>345</v>
       </c>
       <c r="C4" s="4">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="D4" s="4">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>19</v>
+        <v>454</v>
       </c>
       <c r="F4" s="4">
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4">
+        <v>21.62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="4">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C5" s="4">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D5" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>172</v>
       </c>
       <c r="F5" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="4">
-        <v>28</v>
+        <v>366</v>
       </c>
       <c r="C6" s="4">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="D6" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>16</v>
+        <v>473</v>
       </c>
       <c r="F6" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23.5</v>
+      </c>
+      <c r="G6" s="4">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B7" s="4">
-        <v>26</v>
+        <v>266</v>
       </c>
       <c r="C7" s="4">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="D7" s="4">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>17.5</v>
+        <v>386</v>
       </c>
       <c r="F7" s="4">
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="G7" s="4">
+        <v>17.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="4">
-        <v>87</v>
+        <v>408</v>
       </c>
       <c r="C8" s="4">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D8" s="4">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4">
-        <v>27.5</v>
+        <v>524</v>
       </c>
       <c r="F8" s="4">
-        <v>3.67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <v>20.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -6196,56 +6223,65 @@
         <v>0</v>
       </c>
       <c r="C9" s="4">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
+        <v>137</v>
+      </c>
+      <c r="F9" s="4">
         <v>6</v>
       </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="4">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B10" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>5.5</v>
+        <v>161</v>
       </c>
       <c r="F10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C11" s="4">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="D11" s="4">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
+        <v>114</v>
+      </c>
+      <c r="F11" s="4">
         <v>6</v>
       </c>
-      <c r="F11" s="4">
-        <v>2.67</v>
+      <c r="G11" s="4">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/fantasygp.xlsx
+++ b/fantasygp.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/github.com/squirke1/fantasygp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/fantasygp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="720" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDABD6CC-08D7-4041-8D41-8A4B07D7D967}"/>
+  <xr:revisionPtr revIDLastSave="798" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93143B13-F504-4744-9336-B4F6F948A28E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" activeTab="1" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="14880" windowHeight="16880" activeTab="2" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Scoring" sheetId="5" r:id="rId1"/>
-    <sheet name="Price" sheetId="9" r:id="rId2"/>
-    <sheet name="Master Data" sheetId="14" r:id="rId3"/>
-    <sheet name="2024 Master" sheetId="13" r:id="rId4"/>
-    <sheet name="2023 Master" sheetId="10" r:id="rId5"/>
-    <sheet name="Conditions" sheetId="8" r:id="rId6"/>
+    <sheet name="Conditions" sheetId="8" r:id="rId1"/>
+    <sheet name="Scoring" sheetId="5" r:id="rId2"/>
+    <sheet name="Price" sheetId="9" r:id="rId3"/>
+    <sheet name="Master Data" sheetId="14" r:id="rId4"/>
+    <sheet name="2024 Master" sheetId="13" r:id="rId5"/>
+    <sheet name="2023 Master" sheetId="10" r:id="rId6"/>
     <sheet name="2024 Drivers" sheetId="11" r:id="rId7"/>
     <sheet name="2024 Cars" sheetId="12" r:id="rId8"/>
     <sheet name="2023 Drivers" sheetId="1" r:id="rId9"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="94">
   <si>
     <t>Driver</t>
   </si>
@@ -303,6 +303,30 @@
   </si>
   <si>
     <t>Visa RB</t>
+  </si>
+  <si>
+    <t>Doohan</t>
+  </si>
+  <si>
+    <t>Kick Sauber</t>
+  </si>
+  <si>
+    <t>Visa Cash App</t>
+  </si>
+  <si>
+    <t>Bearman</t>
+  </si>
+  <si>
+    <t>Antonelli</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>Bortoleto</t>
+  </si>
+  <si>
+    <t>Hadjar</t>
   </si>
 </sst>
 </file>
@@ -378,23 +402,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="43">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1036,6 +1043,23 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1056,11 +1080,36 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1A82BC70-CF6A-9948-9229-C4E0295FB311}" name="Table9" displayName="Table9" ref="A1:B5" totalsRowShown="0">
+  <autoFilter ref="A1:B5" xr:uid="{1A82BC70-CF6A-9948-9229-C4E0295FB311}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DA82E7FF-BA38-EC48-82FE-C3F2E48F9199}" name="Rule"/>
+    <tableColumn id="2" xr3:uid="{42368F01-D0F4-1B44-B472-B8EB19B4D2D8}" name="Conditions"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}" name="Table4" displayName="Table4" ref="A1:F10" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F10" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
+    <sortCondition descending="1" ref="F1:F10"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1656D989-86EA-7140-B127-D5AF67B0B41F}" name="Car" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{449213B6-9290-3540-8A86-34E632F071C0}" name="Race" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{500D1721-3543-C44D-831B-342426DC8E48}" name="Bonus" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9231F842-3D3D-FD4D-95D4-D20FA06B5A6F}" name="Total" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{28FFD537-948F-2642-B6CC-B56707164790}" name="Price" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{CDCA00EE-B561-9F44-83C2-41550CA0E6AE}" name="Value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{82ABB6E0-2E92-B84A-964E-422B3E4C9245}" name="Table6" displayName="Table6" ref="A1:D29" totalsRowShown="0">
   <autoFilter ref="A1:D29" xr:uid="{82ABB6E0-2E92-B84A-964E-422B3E4C9245}"/>
   <tableColumns count="4">
@@ -1073,25 +1122,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}" name="Table4" displayName="Table4" ref="A1:F10" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A1:F10" xr:uid="{32B4DF16-1871-754C-BBE9-B687F319C87F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F10">
-    <sortCondition descending="1" ref="F1:F10"/>
-  </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{1656D989-86EA-7140-B127-D5AF67B0B41F}" name="Car" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{449213B6-9290-3540-8A86-34E632F071C0}" name="Race" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{500D1721-3543-C44D-831B-342426DC8E48}" name="Bonus" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{9231F842-3D3D-FD4D-95D4-D20FA06B5A6F}" name="Total" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{28FFD537-948F-2642-B6CC-B56707164790}" name="Price" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{CDCA00EE-B561-9F44-83C2-41550CA0E6AE}" name="Value" dataDxfId="1"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{BA9C8617-770E-3E4A-B13F-022FE4883863}" name="Table8" displayName="Table8" ref="A1:E31" totalsRowShown="0">
   <autoFilter ref="A1:E31" xr:uid="{BA9C8617-770E-3E4A-B13F-022FE4883863}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E31">
@@ -1102,13 +1133,13 @@
     <tableColumn id="2" xr3:uid="{5EEA6B6A-9130-2240-82D0-A8378D85B5FF}" name="Driver Or Team"/>
     <tableColumn id="3" xr3:uid="{0B42391F-AC45-FE43-ADEB-573CA251273E}" name="Team"/>
     <tableColumn id="5" xr3:uid="{E938D90D-F819-3A48-84F2-21861455E047}" name="Original Price"/>
-    <tableColumn id="4" xr3:uid="{56A949C4-3DF1-1549-AAB2-0F68C76F55BF}" name="Current Price" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{56A949C4-3DF1-1549-AAB2-0F68C76F55BF}" name="Current Price" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{BE34461F-9B12-7D42-B888-6386DA1FE709}" name="Table2811" displayName="Table2811" ref="A1:H31" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
@@ -1116,7 +1147,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{DAD8D052-B3F4-CA4C-AF35-972A404B4EDE}" name="Variable"/>
-    <tableColumn id="3" xr3:uid="{5D7ED208-C1EF-3948-80CB-0212370FA9F3}" name="Race" dataDxfId="40">
+    <tableColumn id="3" xr3:uid="{5D7ED208-C1EF-3948-80CB-0212370FA9F3}" name="Race" dataDxfId="39">
       <calculatedColumnFormula>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B2111656-DCD1-8E4E-BCDE-0FFB5A45F573}" name="Bonus">
@@ -1128,10 +1159,10 @@
     <tableColumn id="6" xr3:uid="{A2E404F4-1418-CB47-B949-7C3F8B4E048C}" name="Total">
       <calculatedColumnFormula>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{A73188E9-9E7C-FD4B-8F0A-4D46A6423D8F}" name="Price" dataDxfId="39">
+    <tableColumn id="7" xr3:uid="{A73188E9-9E7C-FD4B-8F0A-4D46A6423D8F}" name="Price" dataDxfId="38">
       <calculatedColumnFormula>Table28[[#This Row],[Price]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{0B2B2C89-B8F6-034D-9BC3-3BF75865619A}" name="Value" dataDxfId="38">
+    <tableColumn id="8" xr3:uid="{0B2B2C89-B8F6-034D-9BC3-3BF75865619A}" name="Value" dataDxfId="37">
       <calculatedColumnFormula>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{F44054C3-0A24-D747-A92C-B46D0E4F6DDB}" name="Type"/>
@@ -1140,7 +1171,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8F0FF1E1-621C-F243-A82B-0EAEA81B236B}" name="Table28" displayName="Table28" ref="A1:H31" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
@@ -1160,7 +1191,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}" name="Table2" displayName="Table2" ref="A1:H31" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
@@ -1180,71 +1211,60 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1A82BC70-CF6A-9948-9229-C4E0295FB311}" name="Table9" displayName="Table9" ref="A1:B5" totalsRowShown="0">
-  <autoFilter ref="A1:B5" xr:uid="{1A82BC70-CF6A-9948-9229-C4E0295FB311}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DA82E7FF-BA38-EC48-82FE-C3F2E48F9199}" name="Rule"/>
-    <tableColumn id="2" xr3:uid="{42368F01-D0F4-1B44-B472-B8EB19B4D2D8}" name="Conditions"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167038ED-A629-4347-B2BF-36D4B44C954E}" name="Table3" displayName="Table3" ref="A1:G21" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{167038ED-A629-4347-B2BF-36D4B44C954E}" name="Table3" displayName="Table3" ref="A1:G21" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:G21" xr:uid="{167038ED-A629-4347-B2BF-36D4B44C954E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
     <sortCondition ref="A1:A21"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B7E6ED44-FBF4-5644-B4B4-74ABEA9A9552}" name="Driver" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{9F0823C1-4006-0049-8E39-6BAA875765C9}" name="Race" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{C4EEA0BC-6E2D-DD4F-BCB6-86125DD3C2D9}" name="Bonus" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{87F9F944-313E-DF40-A190-BA95E3CE5271}" name="Qualy" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{E20A20DA-85AC-0649-B739-19B3D4C29EA2}" name="Total" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{3E7AC695-E0EB-9745-8B4B-E5DD88DD0802}" name="Cost" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{9203FBA0-FBE9-BA40-81A0-8C2B35F51A74}" name="Value" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{B7E6ED44-FBF4-5644-B4B4-74ABEA9A9552}" name="Driver" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{9F0823C1-4006-0049-8E39-6BAA875765C9}" name="Race" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{C4EEA0BC-6E2D-DD4F-BCB6-86125DD3C2D9}" name="Bonus" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{87F9F944-313E-DF40-A190-BA95E3CE5271}" name="Qualy" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{E20A20DA-85AC-0649-B739-19B3D4C29EA2}" name="Total" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{3E7AC695-E0EB-9745-8B4B-E5DD88DD0802}" name="Cost" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{9203FBA0-FBE9-BA40-81A0-8C2B35F51A74}" name="Value" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}" name="Table5" displayName="Table5" ref="A1:G11" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}" name="Table5" displayName="Table5" ref="A1:G11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="A1:G11" xr:uid="{02252436-8FF6-D24A-973E-E6B7939697DD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
     <sortCondition ref="A1:A11"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{3ABC49DF-DBDB-2B4A-BAC9-F3196AD0DD0E}" name="Car" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{B1F3DE3C-18E5-2C40-9D9E-6AE86B5A103F}" name="Race" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{05F2AEE6-5DBC-6C42-9C59-A0929C11B2E2}" name="Bonus" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00D735FC-3DC3-674E-9D38-4628A231F3D3}" name="Qualy" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{FAC1144C-7F83-E040-869C-1CC04A1A9F1F}" name="Total" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{897AD203-02D8-CB46-88C1-D58CC5449801}" name="Cost" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{15E6A59E-7E37-2B47-947B-505DA2FCCEE1}" name="Value" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{3ABC49DF-DBDB-2B4A-BAC9-F3196AD0DD0E}" name="Car" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B1F3DE3C-18E5-2C40-9D9E-6AE86B5A103F}" name="Race" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{05F2AEE6-5DBC-6C42-9C59-A0929C11B2E2}" name="Bonus" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00D735FC-3DC3-674E-9D38-4628A231F3D3}" name="Qualy" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{FAC1144C-7F83-E040-869C-1CC04A1A9F1F}" name="Total" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{897AD203-02D8-CB46-88C1-D58CC5449801}" name="Cost" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{15E6A59E-7E37-2B47-947B-505DA2FCCEE1}" name="Value" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBB231E0-FD07-5748-A941-7A1C56BD477D}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBB231E0-FD07-5748-A941-7A1C56BD477D}" name="Table1" displayName="Table1" ref="A1:I21" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:I21" xr:uid="{DBB231E0-FD07-5748-A941-7A1C56BD477D}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
     <sortCondition descending="1" ref="H1:H21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A27409F7-13F1-D747-885A-3B4350BF3BF6}" name="Driver" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{09F203B6-751C-FF44-B9C5-677273F662BE}" name="Team" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{46BC274C-895C-8747-BF4B-E69BA42E33AE}" name="Race" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{9EFB8883-561F-F44C-A46B-FD369FE28A5E}" name="Qualy" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{F6EA7EE3-7B39-BA44-B685-C2057C9581CC}" name="Bonus" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{565CE414-38FC-7D40-88BE-9DE5571DDF52}" name="Total" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{8B4FE645-A32E-B642-84BA-D5A9308374F1}" name="Price" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{B96EE23B-3D95-7249-AED7-1027BCF06A59}" name="Value" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{1A3E8908-F0EF-3343-AE92-5CD131F53D9F}" name="Alias" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{A27409F7-13F1-D747-885A-3B4350BF3BF6}" name="Driver" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{09F203B6-751C-FF44-B9C5-677273F662BE}" name="Team" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{46BC274C-895C-8747-BF4B-E69BA42E33AE}" name="Race" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{9EFB8883-561F-F44C-A46B-FD369FE28A5E}" name="Qualy" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{F6EA7EE3-7B39-BA44-B685-C2057C9581CC}" name="Bonus" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{565CE414-38FC-7D40-88BE-9DE5571DDF52}" name="Total" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{8B4FE645-A32E-B642-84BA-D5A9308374F1}" name="Price" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{B96EE23B-3D95-7249-AED7-1027BCF06A59}" name="Value" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{1A3E8908-F0EF-3343-AE92-5CD131F53D9F}" name="Alias" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1566,420 +1586,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4FC977-EE0F-F648-BFCF-D8797BF030EA}">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9FB1C3-CECC-7049-A81C-4C95A100B42D}">
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="B4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1">
+        <v>80</v>
+      </c>
+      <c r="B5">
         <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="1">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="1">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="1">
-        <v>5</v>
-      </c>
-      <c r="D22" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="1">
-        <v>6</v>
-      </c>
-      <c r="D23" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="1">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D27" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2232,11 +1888,438 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE4FC977-EE0F-F648-BFCF-D8797BF030EA}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="1">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="1">
+        <v>6</v>
+      </c>
+      <c r="D23" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F80FCC-BFEE-3840-AE96-7B965E6164C7}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E31"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2267,126 +2350,126 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <v>8</v>
       </c>
       <c r="E2" s="4">
-        <v>8.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>10.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="E4" s="4">
-        <v>8</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4">
-        <v>9.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E8" s="4">
-        <v>18.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -2395,10 +2478,10 @@
         <v>57</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="E9" s="4">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2412,146 +2495,146 @@
         <v>58</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>18.5</v>
       </c>
       <c r="E11" s="4">
-        <v>9</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="E12" s="4">
-        <v>14</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E14" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>24.5</v>
       </c>
       <c r="E15" s="4">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E17" s="4">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E18" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -2562,47 +2645,47 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" s="4">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20">
         <v>7</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20">
-        <v>30</v>
-      </c>
       <c r="E20" s="4">
-        <v>30.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -2616,10 +2699,10 @@
         <v>52</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E22" s="4">
-        <v>6.5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -2633,10 +2716,10 @@
         <v>53</v>
       </c>
       <c r="D23">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="E23" s="4">
-        <v>10</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -2650,10 +2733,10 @@
         <v>51</v>
       </c>
       <c r="D24">
-        <v>18</v>
-      </c>
-      <c r="E24" s="4">
-        <v>21</v>
+        <v>22.5</v>
+      </c>
+      <c r="E24">
+        <v>22.5</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2667,10 +2750,10 @@
         <v>57</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E25" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -2683,8 +2766,8 @@
       <c r="C26" t="s">
         <v>58</v>
       </c>
-      <c r="D26">
-        <v>16</v>
+      <c r="D26" s="4">
+        <v>23.5</v>
       </c>
       <c r="E26" s="4">
         <v>23.5</v>
@@ -2701,10 +2784,10 @@
         <v>50</v>
       </c>
       <c r="D27">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="E27" s="4">
-        <v>22</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -2718,44 +2801,44 @@
         <v>49</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>20.5</v>
       </c>
       <c r="E28" s="4">
-        <v>25</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E29" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="E30" s="4">
-        <v>8</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -2769,10 +2852,10 @@
         <v>56</v>
       </c>
       <c r="D31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E31" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7E892A3-9A29-BC41-85E1-6E3BF7063D8E}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -3795,7 +3878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3E65815-93D2-7043-AA0B-FEBEB9F6E090}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -4627,7 +4710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756319A8-6A95-3442-AF99-80D803DA8864}">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -5449,67 +5532,6 @@
       </c>
       <c r="H31" t="s">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A9FB1C3-CECC-7049-A81C-4C95A100B42D}">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
-        <v>93.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/fantasygp.xlsx
+++ b/fantasygp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b62176f68eb117a/Documents/developer/fantasygp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="798" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93143B13-F504-4744-9336-B4F6F948A28E}"/>
+  <xr:revisionPtr revIDLastSave="805" documentId="8_{A68CD679-44BD-9E44-A494-0D19E446F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E344E54-9B99-4E45-8441-4C55B0AA166D}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="920" windowWidth="14880" windowHeight="16880" activeTab="2" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="29940" windowHeight="16880" activeTab="5" xr2:uid="{16E4FC74-DCF6-BE49-A5A5-1134F32D647F}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="8" r:id="rId1"/>
@@ -1080,6 +1080,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{1A82BC70-CF6A-9948-9229-C4E0295FB311}" name="Table9" displayName="Table9" ref="A1:B5" totalsRowShown="0">
   <autoFilter ref="A1:B5" xr:uid="{1A82BC70-CF6A-9948-9229-C4E0295FB311}"/>
@@ -1175,7 +1179,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8F0FF1E1-621C-F243-A82B-0EAEA81B236B}" name="Table28" displayName="Table28" ref="A1:H31" totalsRowShown="0">
   <autoFilter ref="A1:H31" xr:uid="{BD5A1F74-978F-3A42-9DB5-06A2F5B1EDCE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H31">
-    <sortCondition ref="H1:H31"/>
+    <sortCondition ref="G1:G31"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{60485367-9CB0-8D47-BD1C-F61FAE3C1809}" name="Variable"/>
@@ -1892,7 +1896,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2149,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2163,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="1">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -2177,7 +2181,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -2191,7 +2195,7 @@
         <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -2205,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -2219,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="D23" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -2233,7 +2237,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2247,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2318,7 +2322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F80FCC-BFEE-3840-AE96-7B965E6164C7}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2916,27 +2920,27 @@
       </c>
       <c r="B2">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="C2">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="D2">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="E2">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>543</v>
+        <v>631</v>
       </c>
       <c r="F2">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="G2">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>51.1</v>
+        <v>44.68</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2948,27 +2952,27 @@
       </c>
       <c r="B3">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>255</v>
+        <v>337</v>
       </c>
       <c r="C3">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D3">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="F3">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.66</v>
+        <v>43.59</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -2980,27 +2984,27 @@
       </c>
       <c r="B4">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>122</v>
+        <v>289</v>
       </c>
       <c r="C4">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="D4">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>496</v>
+        <v>586</v>
       </c>
       <c r="F4">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.93</v>
+        <v>41.56</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -3012,27 +3016,27 @@
       </c>
       <c r="B5">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>286</v>
+        <v>448</v>
       </c>
       <c r="C5">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="D5">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>609</v>
+        <v>755</v>
       </c>
       <c r="F5">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G5">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>56.800000000000004</v>
+        <v>50.39</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -3044,11 +3048,11 @@
       </c>
       <c r="B6">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>160</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="D6">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3056,15 +3060,15 @@
       </c>
       <c r="E6">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>530</v>
+        <v>398</v>
       </c>
       <c r="F6">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="G6">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>49.879999999999995</v>
+        <v>53.099999999999994</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -3076,27 +3080,27 @@
       </c>
       <c r="B7">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="C7">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="D7">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="F7">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="G7">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>48.129999999999995</v>
+        <v>44.36</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -3108,27 +3112,27 @@
       </c>
       <c r="B8">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>239</v>
+        <v>178</v>
       </c>
       <c r="C8">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D8">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E8">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="F8">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="G8">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>48.34</v>
+        <v>48.010000000000005</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -3140,27 +3144,27 @@
       </c>
       <c r="B9">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>17</v>
+        <v>189</v>
       </c>
       <c r="C9">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D9">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="F9">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="G9">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>48.8</v>
+        <v>49.239999999999995</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -3172,27 +3176,27 @@
       </c>
       <c r="B10">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>433</v>
+        <v>500</v>
       </c>
       <c r="C10">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="D10">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>863</v>
+        <v>894</v>
       </c>
       <c r="F10">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>44.45</v>
+        <v>44.25</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -3204,27 +3208,27 @@
       </c>
       <c r="B11">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="C11">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="D11">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>398</v>
+        <v>581</v>
       </c>
       <c r="F11">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G11">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>49.21</v>
+        <v>47.85</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -3236,27 +3240,27 @@
       </c>
       <c r="B12">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>337</v>
+        <v>483</v>
       </c>
       <c r="C12">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>174</v>
+        <v>225</v>
       </c>
       <c r="D12">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="E12">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>636</v>
+        <v>998</v>
       </c>
       <c r="F12">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>14</v>
+        <v>30.5</v>
       </c>
       <c r="G12">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>36.489999999999995</v>
+        <v>40.9</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -3268,27 +3272,27 @@
       </c>
       <c r="B13">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>170</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="D13">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="E13">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="F13">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>47.059999999999995</v>
+        <v>50.8</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -3300,27 +3304,27 @@
       </c>
       <c r="B14">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="C14">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="D14">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>641</v>
+        <v>695</v>
       </c>
       <c r="F14">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>50.03</v>
+        <v>49.6</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
@@ -3332,27 +3336,27 @@
       </c>
       <c r="B15">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>525</v>
+        <v>413</v>
       </c>
       <c r="C15">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="D15">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>919</v>
+        <v>754</v>
       </c>
       <c r="F15">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>48.91</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
@@ -3364,27 +3368,27 @@
       </c>
       <c r="B16">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>373</v>
+        <v>210</v>
       </c>
       <c r="C16">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="D16">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E16">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>733</v>
+        <v>646</v>
       </c>
       <c r="F16">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>41.790000000000006</v>
+        <v>44.71</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -3396,27 +3400,27 @@
       </c>
       <c r="B17">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C17">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="D17">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E17">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="F17">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>52.77</v>
+        <v>44.53</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -3428,27 +3432,27 @@
       </c>
       <c r="B18">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="C18">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="D18">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="E18">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="F18">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G18">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.8</v>
+        <v>48.3</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -3460,27 +3464,27 @@
       </c>
       <c r="B19">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C19">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D19">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="E19">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F19">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="G19">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>41.53</v>
+        <v>39.93</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -3492,27 +3496,27 @@
       </c>
       <c r="B20">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>1137</v>
+        <v>1226</v>
       </c>
       <c r="C20">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D20">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>1693</v>
+        <v>1611</v>
       </c>
       <c r="F20">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
       <c r="G20">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>56.099999999999994</v>
+        <v>58.03</v>
       </c>
       <c r="H20" t="s">
         <v>0</v>
@@ -3524,27 +3528,27 @@
       </c>
       <c r="B21">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C21">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="D21">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="F21">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>60.95</v>
+        <v>49.83</v>
       </c>
       <c r="H21" t="s">
         <v>0</v>
@@ -3556,27 +3560,27 @@
       </c>
       <c r="B22">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C22">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="D22">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>545</v>
+        <v>605</v>
       </c>
       <c r="F22">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="G22">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.52</v>
+        <v>46.230000000000004</v>
       </c>
       <c r="H22" t="s">
         <v>48</v>
@@ -3588,11 +3592,11 @@
       </c>
       <c r="B23">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>273</v>
+        <v>211</v>
       </c>
       <c r="C23">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="D23">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3600,15 +3604,15 @@
       </c>
       <c r="E23">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>575</v>
+        <v>521</v>
       </c>
       <c r="F23">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G23">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>41</v>
+        <v>42.92</v>
       </c>
       <c r="H23" t="s">
         <v>48</v>
@@ -3620,11 +3624,11 @@
       </c>
       <c r="B24">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>346</v>
+        <v>409</v>
       </c>
       <c r="C24">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="D24">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3632,15 +3636,15 @@
       </c>
       <c r="E24">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>549</v>
+        <v>619</v>
       </c>
       <c r="F24">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G24">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>45.42</v>
+        <v>44.760000000000005</v>
       </c>
       <c r="H24" t="s">
         <v>48</v>
@@ -3684,11 +3688,11 @@
       </c>
       <c r="B26">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C26">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D26">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
@@ -3696,15 +3700,15 @@
       </c>
       <c r="E26">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>740</v>
+        <v>721</v>
       </c>
       <c r="F26">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>23.5</v>
+        <v>21</v>
       </c>
       <c r="G26">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>46.83</v>
+        <v>48.32</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
@@ -3716,27 +3720,27 @@
       </c>
       <c r="B27">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>283</v>
+        <v>39</v>
       </c>
       <c r="C27">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>310</v>
+        <v>281</v>
       </c>
       <c r="D27">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="E27">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>678</v>
+        <v>455</v>
       </c>
       <c r="F27">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="G27">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>51.95</v>
+        <v>56.129999999999995</v>
       </c>
       <c r="H27" t="s">
         <v>48</v>
@@ -3748,27 +3752,27 @@
       </c>
       <c r="B28">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>983</v>
+        <v>581</v>
       </c>
       <c r="C28">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="D28">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="E28">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>1562</v>
+        <v>1151</v>
       </c>
       <c r="F28">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G28">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>52.46</v>
+        <v>54.1</v>
       </c>
       <c r="H28" t="s">
         <v>48</v>
@@ -3812,27 +3816,27 @@
       </c>
       <c r="B30">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>315</v>
+        <v>256</v>
       </c>
       <c r="D30">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>377</v>
+        <v>299</v>
       </c>
       <c r="F30">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>48.93</v>
+        <v>56.47</v>
       </c>
       <c r="H30" t="s">
         <v>48</v>
@@ -3844,27 +3848,27 @@
       </c>
       <c r="B31">
         <f>Table28[[#This Row],[Race]]+Table2[[#This Row],[Race]]</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <f>Table28[[#This Row],[Bonus]]+Table2[[#This Row],[Bonus]]</f>
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D31">
         <f>Table28[[#This Row],[Qualy]]+Table2[[#This Row],[Qualy]]</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <f>Table28[[#This Row],[Total]]+Table2[[#This Row],[Total]]</f>
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="F31">
         <f>Table28[[#This Row],[Price]]</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <f>Table28[[#This Row],[Value]]+Table2[[#This Row],[Value]]</f>
-        <v>51.9</v>
+        <v>64.150000000000006</v>
       </c>
       <c r="H31" t="s">
         <v>48</v>
@@ -3883,7 +3887,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F31"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3924,25 +3928,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="B2" s="4">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="C2" s="4">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4">
-        <v>170</v>
+        <v>258</v>
       </c>
       <c r="F2" s="4">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4">
-        <v>20</v>
+        <v>13.58</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -3950,51 +3954,51 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B3" s="4">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C3" s="4">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D3" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E3" s="4">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F3" s="4">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="G3" s="4">
-        <v>16.86</v>
+        <v>13.79</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>31</v>
+      <c r="A4" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B4" s="4">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="C4" s="4">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D4" s="4">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="E4" s="4">
-        <v>161</v>
+        <v>251</v>
       </c>
       <c r="F4" s="4">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4">
-        <v>20.13</v>
+        <v>14.76</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -4002,25 +4006,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="4">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C5" s="4">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="D5" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E5" s="4">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="F5" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4">
-        <v>22.6</v>
+        <v>16.190000000000001</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -4028,25 +4032,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B6" s="4">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D6" s="4">
         <v>25</v>
       </c>
       <c r="E6" s="4">
-        <v>258</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="G6" s="4">
-        <v>13.58</v>
+        <v>16.8</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -4054,25 +4058,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C7" s="4">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D7" s="4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E7" s="4">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="F7" s="4">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="G7" s="4">
-        <v>20.63</v>
+        <v>16.86</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -4080,25 +4084,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="C8" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="F8" s="4">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="G8" s="4">
-        <v>17.239999999999998</v>
+        <v>16.91</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -4106,25 +4110,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
-        <v>5</v>
+        <v>177</v>
       </c>
       <c r="C9" s="4">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D9" s="4">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4">
-        <v>126</v>
+        <v>319</v>
       </c>
       <c r="F9" s="4">
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="G9" s="4">
-        <v>16.8</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -4132,51 +4136,51 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>199</v>
+        <v>266</v>
       </c>
       <c r="C10" s="4">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E10" s="4">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="F10" s="4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" s="4">
-        <v>17.75</v>
+        <v>17.55</v>
       </c>
       <c r="H10" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4">
-        <v>5</v>
+        <v>199</v>
       </c>
       <c r="C11" s="4">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
-        <v>172</v>
+        <v>355</v>
       </c>
       <c r="F11" s="4">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G11" s="4">
-        <v>19.11</v>
+        <v>17.75</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -4184,25 +4188,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="C12" s="4">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D12" s="4">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="E12" s="4">
-        <v>193</v>
+        <v>555</v>
       </c>
       <c r="F12" s="4">
-        <v>14</v>
+        <v>30.5</v>
       </c>
       <c r="G12" s="4">
-        <v>13.79</v>
+        <v>18.2</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -4210,25 +4214,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B13" s="4">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="C13" s="4">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D13" s="4">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E13" s="4">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="F13" s="4">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G13" s="4">
-        <v>14.76</v>
+        <v>18.5</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -4236,77 +4240,77 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="B14" s="4">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="D14" s="4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="F14" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4">
-        <v>19.43</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4">
-        <v>116</v>
+        <v>4</v>
       </c>
       <c r="C15" s="4">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="D15" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E15" s="4">
-        <v>279</v>
+        <v>114</v>
       </c>
       <c r="F15" s="4">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4">
-        <v>16.91</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="D16" s="4">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
-        <v>259</v>
+        <v>172</v>
       </c>
       <c r="F16" s="4">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G16" s="4">
-        <v>16.190000000000001</v>
+        <v>19.11</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -4314,25 +4318,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C17" s="4">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D17" s="4">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="F17" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G17" s="4">
-        <v>27.67</v>
+        <v>19.43</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -4340,51 +4344,51 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C18" s="4">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D18" s="4">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="E18" s="4">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="F18" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="G18" s="4">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>86</v>
+      </c>
+      <c r="D19" s="4">
+        <v>75</v>
+      </c>
+      <c r="E19" s="4">
+        <v>161</v>
+      </c>
+      <c r="F19" s="4">
         <v>8</v>
       </c>
-      <c r="G18" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="4">
-        <v>22</v>
-      </c>
-      <c r="C19" s="4">
-        <v>91</v>
-      </c>
-      <c r="D19" s="4">
-        <v>50</v>
-      </c>
-      <c r="E19" s="4">
-        <v>163</v>
-      </c>
-      <c r="F19" s="4">
-        <v>7.5</v>
-      </c>
       <c r="G19" s="4">
-        <v>21.73</v>
+        <v>20.13</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -4392,103 +4396,103 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B20" s="4">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="C20" s="4">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
-        <v>555</v>
+        <v>473</v>
       </c>
       <c r="F20" s="4">
-        <v>30.5</v>
+        <v>23.5</v>
       </c>
       <c r="G20" s="4">
-        <v>18.2</v>
+        <v>20.13</v>
       </c>
       <c r="H20" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="B21" s="4">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C21" s="4">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D21" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="F21" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G21" s="4">
-        <v>31.25</v>
+        <v>20.13</v>
       </c>
       <c r="H21" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C22" s="4">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E22" s="4">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F22" s="4">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="G22" s="4">
-        <v>20.92</v>
+        <v>20.63</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="4">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="C23" s="4">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
       </c>
       <c r="E23" s="4">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="F23" s="4">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="G23" s="4">
-        <v>19</v>
+        <v>20.92</v>
       </c>
       <c r="H23" t="s">
         <v>48</v>
@@ -4496,25 +4500,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" s="4">
-        <v>345</v>
+        <v>408</v>
       </c>
       <c r="C24" s="4">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>454</v>
+        <v>524</v>
       </c>
       <c r="F24" s="4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G24" s="4">
-        <v>21.62</v>
+        <v>20.96</v>
       </c>
       <c r="H24" t="s">
         <v>48</v>
@@ -4548,25 +4552,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B26" s="4">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="C26" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F26" s="4">
-        <v>23.5</v>
+        <v>21</v>
       </c>
       <c r="G26" s="4">
-        <v>20.13</v>
+        <v>21.62</v>
       </c>
       <c r="H26" t="s">
         <v>48</v>
@@ -4574,54 +4578,54 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="4">
+        <v>22</v>
+      </c>
+      <c r="C27" s="4">
+        <v>91</v>
+      </c>
+      <c r="D27" s="4">
         <v>50</v>
       </c>
-      <c r="B27" s="4">
-        <v>266</v>
-      </c>
-      <c r="C27" s="4">
-        <v>120</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
       <c r="E27" s="4">
-        <v>386</v>
+        <v>163</v>
       </c>
       <c r="F27" s="4">
-        <v>22</v>
+        <v>7.5</v>
       </c>
       <c r="G27" s="4">
-        <v>17.55</v>
+        <v>21.73</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B28" s="4">
-        <v>408</v>
+        <v>6</v>
       </c>
       <c r="C28" s="4">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="D28" s="4">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E28" s="4">
-        <v>524</v>
+        <v>113</v>
       </c>
       <c r="F28" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G28" s="4">
-        <v>20.96</v>
+        <v>22.6</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -4652,54 +4656,54 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C30" s="4">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="D30" s="4">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E30" s="4">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="F30" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G30" s="4">
-        <v>20.13</v>
+        <v>27.67</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4">
+        <v>0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4">
+        <v>125</v>
+      </c>
+      <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="C31" s="4">
-        <v>110</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>114</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6</v>
-      </c>
       <c r="G31" s="4">
-        <v>19</v>
+        <v>31.25</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4714,7 +4718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{756319A8-6A95-3442-AF99-80D803DA8864}">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
